--- a/Assignment1/utilities/data/analysis.xlsx
+++ b/Assignment1/utilities/data/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="0" windowWidth="14620" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="11860" yWindow="0" windowWidth="16900" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="11">
   <si>
     <t>Train %</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Neighbours</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Polynomial</t>
   </si>
 </sst>
 </file>
@@ -91,8 +100,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,7 +155,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -149,6 +172,13 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -165,6 +195,13 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,16 +531,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1810,7 +1849,7 @@
         <v>0.99942870745060697</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11">
       <c r="B65">
         <v>2</v>
       </c>
@@ -1830,7 +1869,7 @@
         <v>0.99936749753459997</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11">
       <c r="B66">
         <v>3</v>
       </c>
@@ -1850,7 +1889,7 @@
         <v>0.99941510524705002</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11">
       <c r="B67">
         <v>4</v>
       </c>
@@ -1870,7 +1909,7 @@
         <v>0.99931988982215103</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>60</v>
       </c>
@@ -1896,7 +1935,7 @@
         <v>0.99951031900676302</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11">
       <c r="B69">
         <v>2</v>
       </c>
@@ -1916,7 +1955,7 @@
         <v>0.99938789875845402</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11">
       <c r="B70">
         <v>3</v>
       </c>
@@ -1936,7 +1975,7 @@
         <v>0.99946951225732705</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11">
       <c r="B71">
         <v>4</v>
       </c>
@@ -1956,7 +1995,7 @@
         <v>0.99933689032165895</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>80</v>
       </c>
@@ -1982,7 +2021,7 @@
         <v>0.99951032400228501</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11">
       <c r="B73">
         <v>2</v>
       </c>
@@ -2002,7 +2041,7 @@
         <v>0.99955113033542797</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11">
       <c r="B74">
         <v>3</v>
       </c>
@@ -2022,7 +2061,7 @@
         <v>0.99959193666857005</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11">
       <c r="B75">
         <v>4</v>
       </c>
@@ -2042,8 +2081,450 @@
         <v>0.99944911450257001</v>
       </c>
     </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" t="s">
+        <v>2</v>
+      </c>
+      <c r="K78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>0.52351190476190401</v>
+      </c>
+      <c r="E79">
+        <v>0.53313253012048101</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79">
+        <v>0.45938989825114901</v>
+      </c>
+      <c r="K79">
+        <v>0.49355763443273498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>0.52351190476190401</v>
+      </c>
+      <c r="E80">
+        <v>0.53313253012048101</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>0.445960964538549</v>
+      </c>
+      <c r="K80">
+        <v>0.55493098558501497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>0.753571428571428</v>
+      </c>
+      <c r="E81">
+        <v>0.81777108433734902</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81">
+        <v>0.81822506417044605</v>
+      </c>
+      <c r="K81">
+        <v>0.84184324087203999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>0.48005952380952299</v>
+      </c>
+      <c r="E82">
+        <v>0.73343373493975905</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>0.67067132570613197</v>
+      </c>
+      <c r="K82">
+        <v>0.18086571518929201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>40</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>0.64759036144578297</v>
+      </c>
+      <c r="E83">
+        <v>0.63855421686746905</v>
+      </c>
+      <c r="G83">
+        <v>40</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83">
+        <v>0.43002235102617598</v>
+      </c>
+      <c r="K83">
+        <v>0.48693848403441298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>0.60843373493975905</v>
+      </c>
+      <c r="E84">
+        <v>0.60441767068273</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>0.38307852739176002</v>
+      </c>
+      <c r="K84">
+        <v>0.359764681878464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>0.79819277108433695</v>
+      </c>
+      <c r="E85">
+        <v>0.59036144578313199</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85">
+        <v>0.52866364384728004</v>
+      </c>
+      <c r="K85">
+        <v>0.50434930458734295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>0.69277108433734902</v>
+      </c>
+      <c r="E86">
+        <v>0.74297188755020005</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>0.53029288299314803</v>
+      </c>
+      <c r="K86">
+        <v>0.89931648927126195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>60</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>0.531983739837398</v>
+      </c>
+      <c r="E87">
+        <v>0.469879518072289</v>
+      </c>
+      <c r="G87">
+        <v>60</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87">
+        <v>0.74262640619903697</v>
+      </c>
+      <c r="K87">
+        <v>0.81096273323607704</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>0.531983739837398</v>
+      </c>
+      <c r="E88">
+        <v>0.469879518072289</v>
+      </c>
+      <c r="I88" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88">
+        <v>0.72516533305119901</v>
+      </c>
+      <c r="K88">
+        <v>0.68763453475204706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="B89">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>0.63195121951219502</v>
+      </c>
+      <c r="E89">
+        <v>0.43975903614457801</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89">
+        <v>0.33872362199169798</v>
+      </c>
+      <c r="K89">
+        <v>0.60560276669761104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>0.66473170731707298</v>
+      </c>
+      <c r="E90">
+        <v>0.73795180722891496</v>
+      </c>
+      <c r="I90" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <v>0.531902780699408</v>
+      </c>
+      <c r="K90">
+        <v>0.77025800067331096</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>80</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>0.577309018326982</v>
+      </c>
+      <c r="E91">
+        <v>0.48795180722891501</v>
+      </c>
+      <c r="G91">
+        <v>80</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>9</v>
+      </c>
+      <c r="J91">
+        <v>0.43272628746974701</v>
+      </c>
+      <c r="K91">
+        <v>0.67995592916020497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>0.621928869533659</v>
+      </c>
+      <c r="E92">
+        <v>0.71084337349397497</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92">
+        <v>0.67497454219164299</v>
+      </c>
+      <c r="K92">
+        <v>0.57428792948665597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="B93">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>0.75307566684812199</v>
+      </c>
+      <c r="E93">
+        <v>0.40361445783132499</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93">
+        <v>0.67688925843791703</v>
+      </c>
+      <c r="K93">
+        <v>0.53448135150575304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>0.64184358555615995</v>
+      </c>
+      <c r="E94">
+        <v>0.52409638554216798</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94">
+        <v>0.59867321063393297</v>
+      </c>
+      <c r="K94">
+        <v>0.87423488125356996</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="G77:K77"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="F58:I58"/>
     <mergeCell ref="A1:D1"/>

--- a/Assignment1/utilities/data/analysis.xlsx
+++ b/Assignment1/utilities/data/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="0" windowWidth="16900" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28760" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="11">
-  <si>
-    <t>Train %</t>
-  </si>
   <si>
     <t>Impurity</t>
   </si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Polynomial</t>
+  </si>
+  <si>
+    <t>Training Portion</t>
   </si>
 </sst>
 </file>
@@ -100,8 +100,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -155,7 +157,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -179,6 +181,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -202,11 +205,7325 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mammography</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Decision Tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Impurity 0: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$3,Sheet1!$C$7,Sheet1!$C$11,Sheet1!$C$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.782738095238095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.786144578313253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.807186991869918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.813300671384503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Impurity 0: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$3,Sheet1!$D$7,Sheet1!$D$11,Sheet1!$D$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.805722891566265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.799196787148594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.828313253012048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.777108433734939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Impurity 0.1: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$4,Sheet1!$C$8,Sheet1!$C$12,Sheet1!$C$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.837349397590361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.843317073170731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.843367809834875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Impurity 0.1: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$4,Sheet1!$D$8,Sheet1!$D$12,Sheet1!$D$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.823795180722891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81726907630522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.804216867469879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.765060240963855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Impurity 0.2: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$5,Sheet1!$C$9,Sheet1!$C$13,Sheet1!$C$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.843373493975903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.843317073170731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.843367809834875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Impurity 0.2: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$5,Sheet1!$D$9,Sheet1!$D$13,Sheet1!$D$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.823795180722891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81726907630522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.804216867469879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.765060240963855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Impurity 0.4: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$6,Sheet1!$C$10,Sheet1!$C$14,Sheet1!$C$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.58958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58433734939759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.504016260162601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.515060787515877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Impurity 0.4: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$6,Sheet1!$D$10,Sheet1!$D$14,Sheet1!$D$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.512048192771084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.471887550200803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53012048192771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.512048192771084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2083587000"/>
+        <c:axId val="2083613576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2083587000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2083613576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2083613576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2083587000"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Skin SVM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Iterations 1 Linear: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$J$79,Sheet1!$J$83,Sheet1!$J$87,Sheet1!$J$91)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.459389898251149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.430022351026176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.742626406199037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.432726287469747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations 1 Linear: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$K$79,Sheet1!$K$83,Sheet1!$K$87,Sheet1!$K$91)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.493557634432735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.486938484034413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.810962733236077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.679955929160205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Iterations 1 Polynomial: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$J$80,Sheet1!$J$84,Sheet1!$J$88,Sheet1!$J$92)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.445960964538549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38307852739176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.725165333051199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.674974542191643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Iterations 1 Polynomial: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$K$80,Sheet1!$K$84,Sheet1!$K$88,Sheet1!$K$92)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.554930985585015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.359764681878464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.687634534752047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.574287929486656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Iterations 100 Linear: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$J$81,Sheet1!$J$85,Sheet1!$J$89,Sheet1!$J$93)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.818225064170446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52866364384728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.338723621991698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.676889258437917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Iterations 100 Linear: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$K$81,Sheet1!$K$85,Sheet1!$K$89,Sheet1!$K$93)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.84184324087204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.504349304587343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.605602766697611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.534481351505753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Iterations 100 Polynomial: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$J$82,Sheet1!$J$86,Sheet1!$J$90,Sheet1!$J$94)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.670671325706132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.530292882993148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.531902780699408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.598673210633933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Iterations 100 Polynomial: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$K$82,Sheet1!$K$86,Sheet1!$K$90,Sheet1!$K$94)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.180865715189292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.899316489271262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.770258000673311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87423488125357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2090817496"/>
+        <c:axId val="2088837336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2090817496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2088837336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2088837336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2090817496"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Skin Decision Tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Impurity 0: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$3,Sheet1!$H$7,Sheet1!$H$11,Sheet1!$H$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.998612561354694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99890841143756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999075044976996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999137951745786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Impurity 0: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$3,Sheet1!$I$7,Sheet1!$I$11,Sheet1!$I$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.998775797516909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999041044649233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999081848137682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999265486003427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Impurity 0.1: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$4,Sheet1!$H$8,Sheet1!$H$12,Sheet1!$H$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.881863335412111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.882046890200375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.882204134861184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.882552485961345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Impurity 0.1: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$4,Sheet1!$I$8,Sheet1!$I$12,Sheet1!$I$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.882512267529049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.882606182201516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.882649990308397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.881702440218721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Impurity 0.2: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$5,Sheet1!$H$9,Sheet1!$H$13,Sheet1!$H$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.881863335412111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.882046890200375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.882204134861184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.882552485961345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Impurity 0.2: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$5,Sheet1!$I$9,Sheet1!$I$13,Sheet1!$I$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.882512267529049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.882606182201516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.882649990308397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.881702440218721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Impurity 0.4: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$6,Sheet1!$H$10,Sheet1!$H$14,Sheet1!$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.791924263445369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.792995450366962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79321109419542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.792807773796216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Impurity 0.4: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$6,Sheet1!$I$10,Sheet1!$I$14,Sheet1!$I$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.792594595146037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.792103920835175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.791334686757189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.791071574308332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2091323640"/>
+        <c:axId val="2092831704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2091323640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092831704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2092831704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2091323640"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mammography</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Boosted Tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Impurity 0.18: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$22,Sheet1!$C$26,Sheet1!$C$30,Sheet1!$C$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.843373493975903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.843317073170731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.843367809834875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Impurity 0.18: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$22,Sheet1!$D$26,Sheet1!$D$30,Sheet1!$D$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.823795180722891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81726907630522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.804216867469879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.765060240963855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Impurity 0.36: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$23,Sheet1!$C$27,Sheet1!$C$31,Sheet1!$C$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.843373493975903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.843317073170731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.843367809834875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Impurity 0.36: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$23,Sheet1!$D$27,Sheet1!$D$31,Sheet1!$D$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.823795180722891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81726907630522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.804216867469879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.765060240963855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Impurity 0.54: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$24,Sheet1!$C$28,Sheet1!$C$32,Sheet1!$C$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.524107142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.506024096385542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.504016260162601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.515060787515877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Impurity 0.54: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$24,Sheet1!$D$28,Sheet1!$D$32,Sheet1!$D$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.512048192771084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.471887550200803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53012048192771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.512048192771084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Impurity 0.72: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$25,Sheet1!$C$29,Sheet1!$C$33,Sheet1!$C$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.524107142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.506024096385542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.504016260162601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.515060787515877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Impurity 0.72: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$25,Sheet1!$D$29,Sheet1!$D$33,Sheet1!$D$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.512048192771084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.471887550200803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53012048192771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.512048192771084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2090327352"/>
+        <c:axId val="2086991560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2090327352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086991560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086991560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2090327352"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Skin Boosted Tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Impurity 0.18: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$22,Sheet1!$H$26,Sheet1!$H$30,Sheet1!$H$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.894574806309402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.896237601462622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.896391333922942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.896360531574139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Impurity 0.18: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$22,Sheet1!$I$26,Sheet1!$I$30,Sheet1!$I$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.896422268243167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.896099568130037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.895799965314263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.895331755488451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Impurity 0.36: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$23,Sheet1!$H$27,Sheet1!$H$31,Sheet1!$H$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.879659613570779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.877037912807084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.875865473400977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.876186600055672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Impurity 0.36: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$23,Sheet1!$I$27,Sheet1!$I$31,Sheet1!$I$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.882512267529049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.876192743224402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.876161717148016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.875173426915857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Impurity 0.54: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$24,Sheet1!$H$28,Sheet1!$H$32,Sheet1!$H$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.791924263445369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.792995450366962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79321109419542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.792807773796216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Impurity 0.54: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$24,Sheet1!$I$28,Sheet1!$I$32,Sheet1!$I$36)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.792594595146037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.792103920835175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.791334686757189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.791071574308332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Impurity 0.72: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$25,Sheet1!$H$29,Sheet1!$H$33,Sheet1!$H$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.791924263445369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.792995450366962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79321109419542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.792807773796216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Impurity 0.72: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$25,Sheet1!$I$29,Sheet1!$I$33,Sheet1!$I$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.792594595146037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.792103920835175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.791334686757189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.791071574308332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2094399512"/>
+        <c:axId val="2094403176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2094399512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2094403176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094403176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.87"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2094399512"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mammography</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Neural Network</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Iterations 1: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$41,Sheet1!$C$45,Sheet1!$C$49,Sheet1!$C$53)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.439583333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36144578313253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.385398373983739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.400435492651061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations 1: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$41,Sheet1!$D$45,Sheet1!$D$49,Sheet1!$D$53)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.414156626506024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.369477911646586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.388554216867469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.427710843373493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Iterations 5: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$42,Sheet1!$C$46,Sheet1!$C$50,Sheet1!$C$54)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.451488095238095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.503012048192771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.371235772357723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.386871711123208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Iterations 5: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$42,Sheet1!$D$46,Sheet1!$D$50,Sheet1!$D$54)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.421686746987951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.413654618473895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.469879518072289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.415662650602409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Iterations 10: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$43,Sheet1!$C$47,Sheet1!$C$51,Sheet1!$C$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.488095238095238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.503012048192771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.493983739837398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.555625113409544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Iterations 10: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$43,Sheet1!$D$47,Sheet1!$D$51,Sheet1!$D$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.475903614457831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.471887550200803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.469879518072289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.602409638554216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Iterations 15: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$44,Sheet1!$C$48,Sheet1!$C$52,Sheet1!$C$56)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.50625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.503012048192771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.510146341463414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.692741789148974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Iterations 15: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$44,Sheet1!$D$48,Sheet1!$D$52,Sheet1!$D$56)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.483433734939759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.471887550200803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.632530120481927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.704819277108433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2084972824"/>
+        <c:axId val="2083274248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2084972824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2083274248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2083274248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.75"/>
+          <c:min val="0.3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2084972824"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Skin Neural Network</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Iterations 1: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$41,Sheet1!$H$45,Sheet1!$H$49,Sheet1!$H$53)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.985186992942677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.983717937519495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.985261915995458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.986059317776698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations 1: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$41,Sheet1!$I$45,Sheet1!$I$49,Sheet1!$I$53)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.982810156799934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98506478049444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.985942074819175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.986839957561413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Iterations 5: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$42,Sheet1!$H$46,Sheet1!$H$50,Sheet1!$H$54)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.987288579055783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.990083842892926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.990893262870211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.994332913806858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Iterations 5: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$42,Sheet1!$I$46,Sheet1!$I$50,Sheet1!$I$54)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.987268294175856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.990743700479477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.995480652499923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.996531461682853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Iterations 10: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$43,Sheet1!$H$47,Sheet1!$H$51,Sheet1!$H$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99045117978993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.993736087977974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996626631313438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99674054345526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Iterations 10: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$43,Sheet1!$I$47,Sheet1!$I$51,Sheet1!$I$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.990048253981208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.995817322406229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996613039796782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.997061944013711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Iterations 15: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$44,Sheet1!$H$48,Sheet1!$H$52,Sheet1!$H$56)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.990757237281073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.996153912342827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99685787719236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.997021090430103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Iterations 15: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$44,Sheet1!$I$48,Sheet1!$I$52,Sheet1!$I$56)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.991083725248156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.996946305301458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.997072115727941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.997551620011425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2085812184"/>
+        <c:axId val="2092618680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2085812184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092618680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2092618680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.98"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2085812184"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mammography</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> KNN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Neighbours 1: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$60,Sheet1!$C$64,Sheet1!$C$68,Sheet1!$C$72)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.662797619047619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.756024096385542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.763056910569105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.763645436399927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Neighbours 1: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$60,Sheet1!$D$64,Sheet1!$D$68,Sheet1!$D$72)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.754518072289156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.708835341365461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.768072289156626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.777108433734939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Neighbours 2: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$61,Sheet1!$C$65,Sheet1!$C$69,Sheet1!$C$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.734523809523809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.737951807228915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.740796747967479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.772609326800943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Neighbours 2: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$61,Sheet1!$D$65,Sheet1!$D$69,Sheet1!$D$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.760542168674698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.724899598393574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.774096385542168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.753012048192771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Neighbours 3: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$62,Sheet1!$C$66,Sheet1!$C$70,Sheet1!$C$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.747321428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.804216867469879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.817317073170731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.811930684086372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Neighbours 3: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$62,Sheet1!$D$66,Sheet1!$D$70,Sheet1!$D$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.823795180722891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78714859437751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.813253012048192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.753012048192771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Neighbours 4: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$63,Sheet1!$C$67,Sheet1!$C$71,Sheet1!$C$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.729166666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80722891566265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.811317073170731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.810361095989838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Neighbours 4: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$63,Sheet1!$D$67,Sheet1!$D$71,Sheet1!$D$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.789156626506024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.821285140562249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80722891566265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.734939759036144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2106815096"/>
+        <c:axId val="2108428984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2106815096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108428984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108428984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.85"/>
+          <c:min val="0.65"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2106815096"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Skin KNN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Neighbours 1: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$60,Sheet1!$H$64,Sheet1!$H$68,Sheet1!$H$72)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999510309013835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9994593060941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999435502955216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999489912613719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Neighbours 1: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$60,Sheet1!$I$64,Sheet1!$I$68,Sheet1!$I$72)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999444008038929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999428707450607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999510319006763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999510324002285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Neighbours 2: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$61,Sheet1!$H$65,Sheet1!$H$69,Sheet1!$H$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999326672187684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999398094096446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999469508787913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999479709989668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Neighbours 2: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$61,Sheet1!$I$65,Sheet1!$I$69,Sheet1!$I$73)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999239974291747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9993674975346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999387898758454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999551130335428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Neighbours 3: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$62,Sheet1!$H$66,Sheet1!$H$70,Sheet1!$H$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999408284854242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999449101180228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999496713750098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999540920946445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Neighbours 3: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$62,Sheet1!$I$66,Sheet1!$I$70,Sheet1!$I$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999301184415902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99941510524705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999469512257327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99959193666857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Neighbours 4: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$63,Sheet1!$H$67,Sheet1!$H$71,Sheet1!$H$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999020613031792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999316479764868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999449105806344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999438903344297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Neighbours 4: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$I$63,Sheet1!$I$67,Sheet1!$I$71,Sheet1!$I$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.999117554043438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999319889822151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999336890321659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99944911450257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2092232536"/>
+        <c:axId val="2089996728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092232536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2089996728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2089996728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9996"/>
+          <c:min val="0.999"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092232536"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mammography</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> SVM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Iterations 1 Linear: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$79,Sheet1!$D$83,Sheet1!$D$87,Sheet1!$D$91)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.523511904761904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.647590361445783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.531983739837398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.577309018326982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Iterations 1 Linear: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$79,Sheet1!$E$83,Sheet1!$E$87,Sheet1!$E$91)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.533132530120481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.638554216867469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.469879518072289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.487951807228915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Iterations 1 Polynomial: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$80,Sheet1!$D$84,Sheet1!$D$88,Sheet1!$D$92)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.523511904761904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.608433734939759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.531983739837398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.621928869533659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Iterations 1 Polynomial: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$80,Sheet1!$E$84,Sheet1!$E$88,Sheet1!$E$92)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.533132530120481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60441767068273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.469879518072289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.710843373493975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Iterations 100 Linear: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$81,Sheet1!$D$85,Sheet1!$D$89,Sheet1!$D$93)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.753571428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.798192771084337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.631951219512195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.753075666848122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Iterations 100 Linear: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$81,Sheet1!$E$85,Sheet1!$E$89,Sheet1!$E$93)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.817771084337349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.590361445783132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.439759036144578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.403614457831325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Iterations 100 Polynomial: X-Val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$82,Sheet1!$D$86,Sheet1!$D$90,Sheet1!$D$94)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.480059523809523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.692771084337349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.664731707317073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64184358555616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Iterations 100 Polynomial: Test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="12700" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="660066"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$3,Sheet1!$A$7,Sheet1!$A$11,Sheet1!$A$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$82,Sheet1!$E$86,Sheet1!$E$90,Sheet1!$E$94)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.733433734939759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7429718875502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.737951807228915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.524096385542168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2091979592"/>
+        <c:axId val="2090677544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2091979592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Portion</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2090677544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2090677544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2091979592"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525"/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,27 +7850,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
     <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -561,33 +7881,33 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -599,7 +7919,7 @@
         <v>0.80572289156626498</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -673,7 +7993,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -685,7 +8005,7 @@
         <v>0.79919678714859399</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -759,7 +8079,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -771,7 +8091,7 @@
         <v>0.82831325301204795</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -845,7 +8165,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -857,7 +8177,7 @@
         <v>0.77710843373493899</v>
       </c>
       <c r="F15">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -931,13 +8251,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -945,33 +8265,33 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="B22">
         <v>0.18</v>
@@ -983,7 +8303,7 @@
         <v>0.82379518072289104</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="G22">
         <v>0.18</v>
@@ -1057,7 +8377,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="B26">
         <v>0.18</v>
@@ -1069,7 +8389,7 @@
         <v>0.81726907630522005</v>
       </c>
       <c r="F26">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="G26">
         <v>0.18</v>
@@ -1143,7 +8463,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="B30">
         <v>0.18</v>
@@ -1155,7 +8475,7 @@
         <v>0.80421686746987897</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="G30">
         <v>0.18</v>
@@ -1229,7 +8549,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="B34">
         <v>0.18</v>
@@ -1241,7 +8561,7 @@
         <v>0.76506024096385505</v>
       </c>
       <c r="F34">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="G34">
         <v>0.18</v>
@@ -1315,13 +8635,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1329,33 +8649,33 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
       <c r="F40" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
         <v>2</v>
-      </c>
-      <c r="I40" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1367,7 +8687,7 @@
         <v>0.41415662650602397</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1441,7 +8761,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1453,7 +8773,7 @@
         <v>0.369477911646586</v>
       </c>
       <c r="F45">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1527,7 +8847,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1539,7 +8859,7 @@
         <v>0.38855421686746899</v>
       </c>
       <c r="F49">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1613,7 +8933,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1625,7 +8945,7 @@
         <v>0.42771084337349302</v>
       </c>
       <c r="F53">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1699,13 +9019,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -1713,33 +9033,33 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1751,7 +9071,7 @@
         <v>0.75451807228915602</v>
       </c>
       <c r="F60">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -1825,7 +9145,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1837,7 +9157,7 @@
         <v>0.708835341365461</v>
       </c>
       <c r="F64">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -1911,7 +9231,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1923,7 +9243,7 @@
         <v>0.76807228915662595</v>
       </c>
       <c r="F68">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -1997,7 +9317,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2009,7 +9329,7 @@
         <v>0.77710843373493899</v>
       </c>
       <c r="F72">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2083,14 +9403,14 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -2099,45 +9419,45 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
         <v>2</v>
       </c>
-      <c r="E78" t="s">
-        <v>3</v>
-      </c>
       <c r="G78" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J78" t="s">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
         <v>2</v>
-      </c>
-      <c r="K78" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79">
         <v>0.52351190476190401</v>
@@ -2146,13 +9466,13 @@
         <v>0.53313253012048101</v>
       </c>
       <c r="G79">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J79">
         <v>0.45938989825114901</v>
@@ -2163,7 +9483,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="C80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80">
         <v>0.52351190476190401</v>
@@ -2172,7 +9492,7 @@
         <v>0.53313253012048101</v>
       </c>
       <c r="I80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J80">
         <v>0.445960964538549</v>
@@ -2186,7 +9506,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81">
         <v>0.753571428571428</v>
@@ -2198,7 +9518,7 @@
         <v>100</v>
       </c>
       <c r="I81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J81">
         <v>0.81822506417044605</v>
@@ -2209,7 +9529,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="C82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82">
         <v>0.48005952380952299</v>
@@ -2218,7 +9538,7 @@
         <v>0.73343373493975905</v>
       </c>
       <c r="I82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J82">
         <v>0.67067132570613197</v>
@@ -2229,13 +9549,13 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83">
         <v>0.64759036144578297</v>
@@ -2244,13 +9564,13 @@
         <v>0.63855421686746905</v>
       </c>
       <c r="G83">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J83">
         <v>0.43002235102617598</v>
@@ -2261,7 +9581,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="C84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84">
         <v>0.60843373493975905</v>
@@ -2270,7 +9590,7 @@
         <v>0.60441767068273</v>
       </c>
       <c r="I84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J84">
         <v>0.38307852739176002</v>
@@ -2284,7 +9604,7 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85">
         <v>0.79819277108433695</v>
@@ -2296,7 +9616,7 @@
         <v>100</v>
       </c>
       <c r="I85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J85">
         <v>0.52866364384728004</v>
@@ -2307,7 +9627,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="C86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86">
         <v>0.69277108433734902</v>
@@ -2316,7 +9636,7 @@
         <v>0.74297188755020005</v>
       </c>
       <c r="I86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J86">
         <v>0.53029288299314803</v>
@@ -2327,13 +9647,13 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87">
         <v>0.531983739837398</v>
@@ -2342,13 +9662,13 @@
         <v>0.469879518072289</v>
       </c>
       <c r="G87">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J87">
         <v>0.74262640619903697</v>
@@ -2359,7 +9679,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="C88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88">
         <v>0.531983739837398</v>
@@ -2368,7 +9688,7 @@
         <v>0.469879518072289</v>
       </c>
       <c r="I88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J88">
         <v>0.72516533305119901</v>
@@ -2382,7 +9702,7 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89">
         <v>0.63195121951219502</v>
@@ -2394,7 +9714,7 @@
         <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J89">
         <v>0.33872362199169798</v>
@@ -2405,7 +9725,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="C90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90">
         <v>0.66473170731707298</v>
@@ -2414,7 +9734,7 @@
         <v>0.73795180722891496</v>
       </c>
       <c r="I90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J90">
         <v>0.531902780699408</v>
@@ -2425,13 +9745,13 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91">
         <v>0.577309018326982</v>
@@ -2440,13 +9760,13 @@
         <v>0.48795180722891501</v>
       </c>
       <c r="G91">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J91">
         <v>0.43272628746974701</v>
@@ -2457,7 +9777,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="C92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92">
         <v>0.621928869533659</v>
@@ -2466,7 +9786,7 @@
         <v>0.71084337349397497</v>
       </c>
       <c r="I92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J92">
         <v>0.67497454219164299</v>
@@ -2480,7 +9800,7 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93">
         <v>0.75307566684812199</v>
@@ -2492,7 +9812,7 @@
         <v>100</v>
       </c>
       <c r="I93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J93">
         <v>0.67688925843791703</v>
@@ -2503,7 +9823,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="C94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94">
         <v>0.64184358555615995</v>
@@ -2512,7 +9832,7 @@
         <v>0.52409638554216798</v>
       </c>
       <c r="I94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J94">
         <v>0.59867321063393297</v>
@@ -2536,6 +9856,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
